--- a/S32M2/S32M27x_DMAMUX_map.xlsx
+++ b/S32M2/S32M27x_DMAMUX_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/carlos_goyarzu_nxp_com/Documents/Documents/0 - S32M_new/1. Systems/RM Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/felipe_garcia_1_nxp_com/Documents/Auto - Apps/S32M2/Pinout spredsheets/S32M27x/S32M27x_Spreadsheets_Aug2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{8B200AB7-914F-4B08-A9E2-21814A18FA66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76ECC9C1-8797-4CDD-A714-F552EB9BE0EB}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{8B200AB7-914F-4B08-A9E2-21814A18FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A240267-0947-4965-A0BD-C7A4AC1D25C9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="90">
   <si>
     <t>Source</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>LPSPI_1</t>
-  </si>
-  <si>
-    <t>LPSPI_2</t>
   </si>
   <si>
     <t>LPSPI_3</t>
@@ -437,9 +434,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -477,9 +474,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,26 +509,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,26 +544,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,14 +726,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="7" customFormat="1" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="7" customFormat="1" ht="35.4" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -783,21 +746,21 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,31 +768,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -837,16 +800,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -854,16 +817,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -871,16 +834,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -888,16 +851,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -905,16 +868,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -922,16 +885,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -939,16 +902,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -956,16 +919,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -973,16 +936,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -990,16 +953,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1007,16 +970,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1024,16 +987,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1041,16 +1004,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1058,16 +1021,16 @@
         <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1075,16 +1038,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1092,16 +1055,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1109,16 +1072,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1126,16 +1089,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1143,16 +1106,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1160,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>8</v>
@@ -1169,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -1177,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>8</v>
@@ -1186,7 +1149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1194,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>8</v>
@@ -1203,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1211,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>8</v>
@@ -1220,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -1228,16 +1191,16 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -1245,16 +1208,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1263,13 +1226,13 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -1278,13 +1241,13 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -1293,13 +1256,13 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -1307,16 +1270,16 @@
         <v>9</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -1324,16 +1287,16 @@
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -1341,16 +1304,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1358,16 +1321,16 @@
         <v>12</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1375,16 +1338,16 @@
         <v>13</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -1392,16 +1355,16 @@
         <v>13</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -1409,16 +1372,16 @@
         <v>13</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -1426,16 +1389,16 @@
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -1443,16 +1406,16 @@
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -1460,16 +1423,16 @@
         <v>13</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -1477,16 +1440,16 @@
         <v>13</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>36</v>
       </c>
@@ -1494,16 +1457,16 @@
         <v>13</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>37</v>
       </c>
@@ -1511,16 +1474,16 @@
         <v>14</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>37</v>
       </c>
@@ -1528,7 +1491,7 @@
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>8</v>
@@ -1537,7 +1500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>38</v>
       </c>
@@ -1545,16 +1508,16 @@
         <v>14</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>38</v>
       </c>
@@ -1562,7 +1525,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>8</v>
@@ -1571,7 +1534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>39</v>
       </c>
@@ -1579,16 +1542,16 @@
         <v>15</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -1596,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>8</v>
@@ -1605,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -1613,16 +1576,16 @@
         <v>15</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>40</v>
       </c>
@@ -1630,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>8</v>
@@ -1639,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>41</v>
       </c>
@@ -1647,16 +1610,16 @@
         <v>16</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>41</v>
       </c>
@@ -1664,16 +1627,16 @@
         <v>16</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>42</v>
       </c>
@@ -1681,16 +1644,16 @@
         <v>16</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>42</v>
       </c>
@@ -1698,16 +1661,16 @@
         <v>16</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43</v>
       </c>
@@ -1715,16 +1678,16 @@
         <v>17</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>44</v>
       </c>
@@ -1732,16 +1695,16 @@
         <v>17</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>45</v>
       </c>
@@ -1749,16 +1712,16 @@
         <v>18</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>46</v>
       </c>
@@ -1766,118 +1729,118 @@
         <v>18</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>47</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>48</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>49</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>50</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>51</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>52</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>53</v>
       </c>
@@ -1885,7 +1848,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>8</v>
@@ -1894,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>54</v>
       </c>
@@ -1902,7 +1865,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>8</v>
@@ -1911,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>55</v>
       </c>
@@ -1919,7 +1882,7 @@
         <v>8</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>8</v>
@@ -1928,7 +1891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>56</v>
       </c>
@@ -1936,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>8</v>
@@ -1945,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>57</v>
       </c>
@@ -1953,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>8</v>
@@ -1962,41 +1925,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>58</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>59</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>60</v>
       </c>
@@ -2004,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>8</v>
@@ -2013,51 +1976,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>61</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>62</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>63</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2077,15 +2040,15 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2093,31 +2056,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2125,16 +2088,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2142,16 +2105,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2159,16 +2122,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2176,16 +2139,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2193,16 +2156,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2210,16 +2173,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2227,16 +2190,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2244,16 +2207,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2261,16 +2224,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2278,7 +2241,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -2287,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2295,16 +2258,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2312,16 +2275,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2329,16 +2292,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2346,16 +2309,16 @@
         <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2363,16 +2326,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2380,16 +2343,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2397,16 +2360,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2414,16 +2377,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2431,7 +2394,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>8</v>
@@ -2440,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2448,7 +2411,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>8</v>
@@ -2457,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2465,7 +2428,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>8</v>
@@ -2474,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2482,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>8</v>
@@ -2491,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2499,16 +2462,16 @@
         <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2516,16 +2479,16 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2533,16 +2496,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2550,16 +2513,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2567,7 +2530,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>8</v>
@@ -2576,7 +2539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -2584,7 +2547,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>8</v>
@@ -2593,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -2601,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>8</v>
@@ -2610,7 +2573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -2618,7 +2581,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>8</v>
@@ -2627,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -2635,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>8</v>
@@ -2644,7 +2607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -2652,7 +2615,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>8</v>
@@ -2661,41 +2624,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>30</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>31</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -2703,7 +2666,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>8</v>
@@ -2712,7 +2675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -2720,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>8</v>
@@ -2729,7 +2692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -2737,16 +2700,16 @@
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -2754,16 +2717,16 @@
         <v>13</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>35</v>
       </c>
@@ -2771,16 +2734,16 @@
         <v>13</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>35</v>
       </c>
@@ -2788,16 +2751,16 @@
         <v>13</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>36</v>
       </c>
@@ -2805,16 +2768,16 @@
         <v>13</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>36</v>
       </c>
@@ -2822,16 +2785,16 @@
         <v>13</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>37</v>
       </c>
@@ -2839,16 +2802,16 @@
         <v>13</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -2856,33 +2819,33 @@
         <v>13</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>38</v>
       </c>
@@ -2890,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>8</v>
@@ -2899,24 +2862,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>39</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>39</v>
       </c>
@@ -2924,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>8</v>
@@ -2933,24 +2896,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>40</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>40</v>
       </c>
@@ -2958,7 +2921,7 @@
         <v>8</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>8</v>
@@ -2967,24 +2930,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>41</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>41</v>
       </c>
@@ -2992,7 +2955,7 @@
         <v>8</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>8</v>
@@ -3001,24 +2964,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>42</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>42</v>
       </c>
@@ -3026,7 +2989,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>8</v>
@@ -3035,24 +2998,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>43</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>43</v>
       </c>
@@ -3060,7 +3023,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>8</v>
@@ -3069,24 +3032,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -3094,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>8</v>
@@ -3103,24 +3066,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>45</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>45</v>
       </c>
@@ -3128,7 +3091,7 @@
         <v>8</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>8</v>
@@ -3137,24 +3100,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>46</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>46</v>
       </c>
@@ -3162,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>8</v>
@@ -3171,24 +3134,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>47</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>47</v>
       </c>
@@ -3196,7 +3159,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>8</v>
@@ -3205,24 +3168,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>48</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>48</v>
       </c>
@@ -3230,7 +3193,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>8</v>
@@ -3239,24 +3202,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>49</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>49</v>
       </c>
@@ -3264,7 +3227,7 @@
         <v>8</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>8</v>
@@ -3273,75 +3236,75 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>50</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>50</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>51</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>51</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>52</v>
       </c>
@@ -3349,7 +3312,7 @@
         <v>8</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>8</v>
@@ -3358,7 +3321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>53</v>
       </c>
@@ -3366,7 +3329,7 @@
         <v>8</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>8</v>
@@ -3375,7 +3338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>54</v>
       </c>
@@ -3383,7 +3346,7 @@
         <v>8</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>8</v>
@@ -3392,7 +3355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>55</v>
       </c>
@@ -3400,7 +3363,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>8</v>
@@ -3409,7 +3372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>56</v>
       </c>
@@ -3417,7 +3380,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>8</v>
@@ -3426,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>57</v>
       </c>
@@ -3434,7 +3397,7 @@
         <v>8</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>8</v>
@@ -3443,7 +3406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>58</v>
       </c>
@@ -3451,7 +3414,7 @@
         <v>8</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>8</v>
@@ -3460,7 +3423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>59</v>
       </c>
@@ -3468,7 +3431,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>8</v>
@@ -3477,24 +3440,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>60</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>61</v>
       </c>
@@ -3502,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>8</v>
@@ -3511,34 +3474,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>62</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>63</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
